--- a/Intermediate/Formulas/template/Formulas.xlsx
+++ b/Intermediate/Formulas/template/Formulas.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17115" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17115" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet to hide" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Groups">Report!$A$5:$G$6</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ASSETS</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>[[equals]][[groups.items.targetPercentage]]/[[groups.items.category]]</t>
+  </si>
+  <si>
+    <t>[[hide_sheet]:sheet:collapse]</t>
+  </si>
+  <si>
+    <t>[[num.a]]</t>
   </si>
 </sst>
 </file>
@@ -584,6 +591,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableNums" displayName="TableNums" ref="D4" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="A"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,7 +894,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showFormulas="1" showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I20" sqref="I20"/>
       <selection pane="topRight" activeCell="I20" sqref="I20"/>
@@ -1022,7 +1038,10 @@
         <f>SUM(F5:F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18">
+        <f>'Sheet to hide'!D6</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1042,4 +1061,41 @@
     <oddFooter>&amp;R&amp;G</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f>SUM(TableNums[A])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>